--- a/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -764,12 +764,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -1104,62 +1104,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>48.6%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -1169,62 +1169,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>48.5%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -1559,42 +1559,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>56.0%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-12.2</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2099,42 +2099,42 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>51.6%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2229,42 +2229,42 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>51.6%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -2274,62 +2274,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53.1%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -2404,17 +2404,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2424,22 +2424,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>53.1%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2549,27 +2549,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>52.5%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>17.9</t>
         </is>
       </c>
     </row>
@@ -2599,42 +2599,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>52.5%</t>
+          <t>43.6%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2684,22 +2684,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>43.6%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>41.6%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2879,22 +2879,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -2924,37 +2924,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>47.6%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>47.6%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>-7.4</t>
         </is>
       </c>
     </row>
@@ -3054,22 +3054,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -3119,12 +3119,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3134,27 +3134,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>41.6%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -3624,12 +3624,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
     </row>
@@ -3769,42 +3769,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -3899,42 +3899,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -3964,17 +3964,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3984,17 +3984,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>49.8%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -4094,27 +4094,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>45.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -4159,42 +4159,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>45.9%</t>
+          <t>48.8%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -4224,62 +4224,62 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>47.7%</t>
+          <t>45.2%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -4289,42 +4289,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>58.9%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>-6.5</t>
         </is>
       </c>
     </row>
@@ -4354,22 +4354,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>44.3%</t>
+          <t>27.7%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -4419,42 +4419,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -4549,62 +4549,62 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>58.9%</t>
+          <t>44.3%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>38.7</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>37.1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>1.6</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -4744,62 +4744,62 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>49.5%</t>
+          <t>45.7%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -4809,62 +4809,62 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>56.9%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>56.9%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5014,32 +5014,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5219,22 +5219,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -5264,62 +5264,62 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>52.3%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>51.3%</t>
+          <t>52.3%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -5394,62 +5394,62 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Troy Brown Jr.</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>51.3%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -5589,62 +5589,62 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>63.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,17 +5869,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>49.6%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -5914,17 +5914,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5934,17 +5934,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>49.6%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.1</t>
         </is>
       </c>
     </row>
@@ -5979,42 +5979,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -6044,42 +6044,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -6174,22 +6174,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6204,12 +6204,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -6239,42 +6239,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -6304,37 +6304,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6444,32 +6444,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -6874,12 +6874,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-11.6</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -6974,17 +6974,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6994,12 +6994,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -7084,42 +7084,42 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -7149,42 +7149,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-7.9</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7329,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -7524,12 +7524,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-21.8</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>36.5%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-21.8</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7944,27 +7944,27 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-32.1</t>
+          <t>-11.3</t>
         </is>
       </c>
     </row>
@@ -7994,42 +7994,42 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-32.1</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8074,27 +8074,27 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8154,12 +8154,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -8469,32 +8469,32 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>55.4%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>11.4</t>
         </is>
       </c>
     </row>
@@ -8514,42 +8514,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-17.6</t>
         </is>
       </c>
     </row>
@@ -8579,42 +8579,42 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>55.9%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-17.7</t>
+          <t>-4.5</t>
         </is>
       </c>
     </row>
@@ -8644,37 +8644,37 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8684,22 +8684,22 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -8709,42 +8709,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>-4.3</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-15.6</t>
         </is>
       </c>
     </row>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-15.8</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -8954,12 +8954,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -9099,17 +9099,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9119,22 +9119,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>37.9%</t>
+          <t>34.9%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -9229,62 +9229,62 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -9294,42 +9294,42 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -9359,42 +9359,42 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9489,42 +9489,42 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-21.8</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -9554,37 +9554,37 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>34.2%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9629,52 +9629,52 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>32.4%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -9749,42 +9749,42 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-5.4</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -9879,62 +9879,62 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>59.1%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>22.1</t>
         </is>
       </c>
     </row>
@@ -9964,17 +9964,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>31.5%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -10009,62 +10009,62 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>-8.7</t>
         </is>
       </c>
     </row>
@@ -10074,62 +10074,62 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>15.9</t>
         </is>
       </c>
     </row>
@@ -10139,37 +10139,37 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10189,12 +10189,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10214,32 +10214,32 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>64.4</t>
         </is>
       </c>
     </row>
@@ -10334,22 +10334,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10359,17 +10359,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>34.7</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>-34.7</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -10409,32 +10409,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-34.7</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -10464,12 +10464,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10479,27 +10479,27 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-36.0</t>
         </is>
       </c>
     </row>
@@ -10839,12 +10839,12 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -10854,42 +10854,42 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>51.5%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-19.3</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>-19.3</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Luca Vildoza</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11264,22 +11264,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>-33.8</t>
         </is>
       </c>
     </row>
@@ -11309,17 +11309,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Luca Vildoza</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -11329,22 +11329,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-33.8</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
     </row>
@@ -11504,22 +11504,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Trey Burke</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11529,17 +11529,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-18.5</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -11634,22 +11634,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Trey Burke</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -11659,17 +11659,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>52.2%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-18.5</t>
         </is>
       </c>
     </row>
@@ -11749,12 +11749,12 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -11764,22 +11764,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11789,17 +11789,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>47.9</t>
         </is>
       </c>
     </row>
@@ -11894,22 +11894,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11919,17 +11919,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -12089,42 +12089,42 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -12219,17 +12219,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -12249,32 +12249,32 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>32.7</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>-32.3</t>
         </is>
       </c>
     </row>
@@ -12284,17 +12284,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Marquese Chriss</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -12304,22 +12304,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>26.2</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-31.7</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -12374,12 +12374,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -12434,42 +12434,42 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Marquese Chriss</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-12.7</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Eric Paschall</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,22 +12564,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-39.2</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Eric Paschall</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12629,22 +12629,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>62.3</t>
         </is>
       </c>
     </row>
@@ -12674,27 +12674,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12704,12 +12704,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-12.9</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -12739,17 +12739,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-37.6</t>
+          <t>-39.2</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12824,14 +12824,14 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H192" t="inlineStr">
         <is>
           <t>66.7%</t>
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
@@ -12869,27 +12869,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>29.1</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>-37.7</t>
         </is>
       </c>
     </row>
@@ -12934,42 +12934,42 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>67.3</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-32.3</t>
+          <t>-31.5</t>
         </is>
       </c>
     </row>
@@ -13149,17 +13149,17 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>33.4</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-34.0</t>
+          <t>-33.4</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13224,12 +13224,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>30.6</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>69.5</t>
         </is>
       </c>
     </row>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -13324,22 +13324,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,32 +13354,32 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>17.1</t>
         </is>
       </c>
     </row>
@@ -13454,17 +13454,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Armoni Brooks</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-32.1</t>
+          <t>-37.4</t>
         </is>
       </c>
     </row>
@@ -13519,62 +13519,62 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>-33.9</t>
         </is>
       </c>
     </row>
@@ -13584,42 +13584,42 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13629,17 +13629,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-33.9</t>
+          <t>67.7</t>
         </is>
       </c>
     </row>
@@ -13649,17 +13649,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Armoni Brooks</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-37.4</t>
+          <t>-32.1</t>
         </is>
       </c>
     </row>
